--- a/BCA_III/Attendance.xlsx
+++ b/BCA_III/Attendance.xlsx
@@ -342,51 +342,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:C10"/>
+  <dimension ref="C3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="3:3">
+      <c r="D3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
       <c r="C4">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="3:3">
+      <c r="D4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
       <c r="C5">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
+      <c r="D5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
       <c r="C6">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
+      <c r="D6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
       <c r="C7">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="3:3">
+      <c r="D7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
       <c r="C8">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="3:3">
+      <c r="D8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
       <c r="C9">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="3:3">
+      <c r="D9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
       <c r="C10">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="D11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="D12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="D13">
         <v>49</v>
       </c>
     </row>

--- a/BCA_III/Attendance.xlsx
+++ b/BCA_III/Attendance.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="30.01.2019" sheetId="1" r:id="rId1"/>
+    <sheet name="attendance" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -46,8 +46,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,89 +343,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:D13"/>
+  <dimension ref="C2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="3:4">
+    <row r="2" spans="3:7">
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43503</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43509</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
       <c r="C3">
         <v>32</v>
       </c>
       <c r="D3">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="3:4">
+      <c r="E3">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
       <c r="C4">
         <v>119</v>
       </c>
       <c r="D4">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="3:4">
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
       <c r="C5">
         <v>118</v>
       </c>
       <c r="D5">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="3:4">
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
       <c r="C6">
         <v>93</v>
       </c>
       <c r="D6">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="3:4">
+      <c r="E6">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
       <c r="C7">
         <v>88</v>
       </c>
       <c r="D7">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="3:4">
+      <c r="E7">
+        <v>66</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
       <c r="C8">
         <v>57</v>
       </c>
       <c r="D8">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="3:4">
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
       <c r="C9">
         <v>66</v>
       </c>
       <c r="D9">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="3:4">
+      <c r="E9">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
       <c r="C10">
         <v>49</v>
       </c>
       <c r="D10">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="3:4">
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
       <c r="D11">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="3:4">
+      <c r="E11">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
       <c r="D12">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="3:7">
       <c r="D13">
         <v>49</v>
       </c>

--- a/BCA_III/Attendance.xlsx
+++ b/BCA_III/Attendance.xlsx
@@ -13,6 +13,23 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>"066"</t>
+  </si>
+  <si>
+    <t>"010"</t>
+  </si>
+  <si>
+    <t>"072"</t>
+  </si>
+  <si>
+    <t>"044"</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:G13"/>
+  <dimension ref="C2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:7">
+    <row r="2" spans="3:10">
       <c r="C2">
         <v>30</v>
       </c>
@@ -367,8 +384,17 @@
       <c r="G2" s="1">
         <v>43510</v>
       </c>
-    </row>
-    <row r="3" spans="3:7">
+      <c r="H2" s="1">
+        <v>43516</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43517</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10">
       <c r="C3">
         <v>32</v>
       </c>
@@ -384,8 +410,17 @@
       <c r="G3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="H3">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
       <c r="C4">
         <v>119</v>
       </c>
@@ -401,8 +436,17 @@
       <c r="G4">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="3:7">
+      <c r="H4">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
       <c r="C5">
         <v>118</v>
       </c>
@@ -418,8 +462,14 @@
       <c r="G5">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="3:7">
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
       <c r="C6">
         <v>93</v>
       </c>
@@ -435,8 +485,14 @@
       <c r="G6">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="3:7">
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
       <c r="C7">
         <v>88</v>
       </c>
@@ -452,8 +508,11 @@
       <c r="G7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="3:7">
+      <c r="J7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
       <c r="C8">
         <v>57</v>
       </c>
@@ -469,8 +528,11 @@
       <c r="G8">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="3:7">
+      <c r="J8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
       <c r="C9">
         <v>66</v>
       </c>
@@ -483,8 +545,11 @@
       <c r="F9">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="3:7">
+      <c r="J9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
       <c r="C10">
         <v>49</v>
       </c>
@@ -497,8 +562,11 @@
       <c r="F10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="3:7">
+      <c r="J10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
       <c r="D11">
         <v>57</v>
       </c>
@@ -508,15 +576,99 @@
       <c r="F11">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="3:7">
+      <c r="J11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
       <c r="D12">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="3:7">
+      <c r="J12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
       <c r="D13">
         <v>49</v>
+      </c>
+      <c r="J13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="J14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="J15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="J16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="10:10">
+      <c r="J26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10">
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="10:10">
+      <c r="J28">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
